--- a/数据整理/stocks/A股/上证主板/601788-光大证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601788-光大证券.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>510200</t>
+          <t>003343</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇安上证证券ETF</t>
+          <t>鹏华弘惠灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>26.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003343</t>
+          <t>003344</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华弘惠灵活配置混合A</t>
+          <t>鹏华弘惠灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>26.26</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.61</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003344</t>
+          <t>510200</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华弘惠灵活配置混合C</t>
+          <t>汇安上证证券ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26.26</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004456</t>
+          <t>005146</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>兴银消费新趋势灵活配置混合</t>
+          <t>兴银丰润灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.51</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005146</t>
+          <t>004456</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>兴银丰润灵活配置混合</t>
+          <t>兴银消费新趋势灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,26 +748,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004769</t>
+          <t>008895</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>申万菱信价值优先混合</t>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.50</t>
+          <t>8.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>31.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>510200</t>
+          <t>004769</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇安上证证券ETF</t>
+          <t>申万菱信价值优先混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>97.08</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -734,26 +824,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008895</t>
+          <t>510200</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>申万菱信量化对冲策略灵活配置混合</t>
+          <t>汇安上证证券ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31.49</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601788-光大证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601788-光大证券.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,248 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601788-光大证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601788-光大证券.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1104,4 +1105,286 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>40.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5477</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601788-光大证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601788-光大证券.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1387,4 +1388,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601788-光大证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601788-光大证券.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1396,7 +1397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1407,17 +1408,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1427,14 +1448,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.63</v>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8571</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1443,14 +1486,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.17</v>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1459,14 +1524,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.24</v>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1475,13 +1562,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601788-光大证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601788-光大证券.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1605,7 +1606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1616,17 +1617,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1636,14 +1657,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.93</v>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1652,14 +1695,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.63</v>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1668,14 +1733,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.17</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="5">
@@ -1684,14 +1855,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="6">
@@ -1700,13 +1871,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601788-光大证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601788-光大证券.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1776,7 +1777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1787,17 +1788,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1807,14 +1828,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4209</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1823,14 +1866,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.93</v>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1839,14 +1904,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.63</v>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1855,14 +1942,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.17</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="6">
@@ -1871,14 +2080,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="7">
@@ -1887,13 +2096,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601788-光大证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601788-光大证券.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.93</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.63</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.17</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -666,22 +683,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.49</t>
+          <t>13.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.11</t>
+          <t>98.06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4209</t>
+          <t>0.4258</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>502053</t>
+          <t>510200</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长盛中证全指证券公司指数（LOF）</t>
+          <t>汇安上证证券ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>95.06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1026</t>
+          <t>0.0206</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>510200</t>
+          <t>015859</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇安上证证券ETF</t>
+          <t>宝盈国证证券龙头指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.01</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0250</t>
+          <t>0.0037</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>516980</t>
+          <t>015860</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华富中证证券公司先锋策略ETF</t>
+          <t>宝盈国证证券龙头指数C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.63</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0099</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -808,6 +825,214 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4209</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -977,7 +1202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1185,7 +1410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1467,7 +1692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1711,7 +1936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1881,7 +2106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601788-光大证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601788-光大证券.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.45</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.93</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.63</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.17</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,280 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003343</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华弘惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>26.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003344</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华弘惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,36 +936,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159993</t>
+          <t>004702</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华国证证券龙头ETF</t>
+          <t>南方金融主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.39</t>
+          <t>12.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.06</t>
+          <t>92.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4258</t>
+          <t>0.4851</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +974,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>510200</t>
+          <t>159993</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇安上证证券ETF</t>
+          <t>鹏华国证证券龙头ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>13.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.06</t>
+          <t>98.15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0206</t>
+          <t>0.4257</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +1012,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>015859</t>
+          <t>013500</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈国证证券龙头指数A</t>
+          <t>南方金融主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>92.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0037</t>
+          <t>0.1795</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +1050,416 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>014825</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012911</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>015860</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>宝盈国证证券龙头指数C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014826</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007966</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007965</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014598</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>永赢合享混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>31.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015859</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈国证证券龙头指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012912</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014599</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>永赢合享混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>31.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -891,22 +1534,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.49</t>
+          <t>13.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.11</t>
+          <t>98.06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4209</t>
+          <t>0.4258</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -919,36 +1562,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>502053</t>
+          <t>510200</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长盛中证全指证券公司指数（LOF）</t>
+          <t>汇安上证证券ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>95.06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1026</t>
+          <t>0.0206</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -957,36 +1600,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>510200</t>
+          <t>015859</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇安上证证券ETF</t>
+          <t>宝盈国证证券龙头指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.01</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0250</t>
+          <t>0.0037</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -995,36 +1638,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>516980</t>
+          <t>015860</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华富中证证券公司先锋策略ETF</t>
+          <t>宝盈国证证券龙头指数C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.63</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0099</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1033,6 +1676,214 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4209</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1202,7 +2053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1410,7 +2261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1692,7 +2543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1936,7 +2787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2104,250 +2955,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>003343</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华弘惠灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>26.26</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1441</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003344</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华弘惠灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>26.26</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0617</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>510200</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇安上证证券ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0332</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005146</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>兴银丰润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004456</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>兴银消费新趋势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.51</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>